--- a/workflows/1003_Service Levels_Workflow.xlsx
+++ b/workflows/1003_Service Levels_Workflow.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajay.suryavamshi\Downloads\Default Suites\workflows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT Automation\selenium\workflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Work Flow" sheetId="1" r:id="rId1"/>
     <sheet name="Lead Time Computations" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Flow'!$A$1:$AR$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Flow'!$A$1:$AR$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <t>Sequence Number</t>
   </si>
@@ -193,17 +193,6 @@
   </si>
   <si>
     <t>${GENERAL}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${Functions}@{parent-Functions};
-${Services}@{parent-Services};
-${Time Zone}@{parent-Time Zone};
-${Tier}@{parent-Tier};
-${Currency}@{parent-Currency};
-${Delivery Countries}@{parent-Delivery Countries};
-${Management Regions}@{parent-Management Regions};
-${Management Countries}@{parent-Management Countries}
-</t>
   </si>
   <si>
     <t>${Send For Internal Review (Individual)}</t>
@@ -459,18 +448,6 @@
   </si>
   <si>
     <t>Upload</t>
-  </si>
-  <si>
-    <t>${Functions}@{parent-Functions};
-${Services}@{parent-Services};
-${Time Zone}@{parent-Time Zone};
-${Tier}@{parent-Tier};
-${Currency}@{parent-Currency};
-${Delivery Countries}@{parent-Delivery Countries};
-${Management Regions}@{parent-Management Regions};
-${Management Countries}@{parent-Management Countries};
-${Contract Regions}@{parent-Contract Regions};
-${Contract Countries}@{parent-Contract Countries}</t>
   </si>
   <si>
     <t>${ID},
@@ -547,13 +524,6 @@
 ${End Date},
 ${Pattern Date},
 ${Effective Date}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${GENERAL},
-${REFERENCES},
-${COMMUNICATION},
-${AUDIT LOG}
-</t>
   </si>
   <si>
     <t>${GENERAL},
@@ -662,6 +632,42 @@
   </si>
   <si>
     <t>Save SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${Functions}@{parent-Functions};
+${Services}@{parent-Services};
+${Time Zone}@{parent-Time Zone};
+${Tier}@{parent-Tier};
+${Currency}@{parent-Currency};
+${Delivery Countries}@{parent-Delivery Countries};
+${Management Regions}@{parent-Management Regions};
+${Management Countries}@{parent-Management Countries};
+${Start Date}#{current_date}
+</t>
+  </si>
+  <si>
+    <t>Value updates on date for automation</t>
+  </si>
+  <si>
+    <t>${End Date}~[addDays(${Start Date},90)];
+${Pattern Date}@{Start Date};
+${Effective Date}@{Start Date}</t>
+  </si>
+  <si>
+    <t>${Functions}@{parent-Functions};
+${Services}@{parent-Services};
+${Time Zone}@{parent-Time Zone};
+${Tier}@{parent-Tier};
+${Currency}@{parent-Currency};
+${Delivery Countries}@{parent-Delivery Countries};
+${Management Regions}@{parent-Management Regions};
+${Management Countries}@{parent-Management Countries};
+${Contract Regions}@{parent-Contract Regions};
+${Contract Countries}@{parent-Contract Countries};
+${Start Date}#{current_date}</t>
+  </si>
+  <si>
+    <t>Child Generation Starts</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -902,11 +908,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1030,6 +1062,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1344,13 +1388,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR55"/>
+  <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AM30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD1" s="21" t="s">
         <v>28</v>
@@ -1507,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK1" s="21" t="s">
         <v>34</v>
@@ -1528,10 +1572,10 @@
         <v>49</v>
       </c>
       <c r="AQ1" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AR1" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>48</v>
@@ -1549,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
@@ -1595,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -1605,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -1655,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
@@ -1701,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>48</v>
@@ -1712,7 +1756,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1757,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -1768,7 +1812,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1813,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>39</v>
@@ -1822,26 +1866,26 @@
         <v>1003</v>
       </c>
       <c r="E7" s="11">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="11">
@@ -1885,7 +1929,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>52</v>
@@ -1899,612 +1943,614 @@
       <c r="AN7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AO7" s="7" t="s">
-        <v>143</v>
+      <c r="AO7" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="25"/>
       <c r="AR7" s="25"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>20</v>
+      <c r="A8" s="11">
+        <v>20000</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E8" s="7">
-        <v>25</v>
+        <v>146</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>91</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="11">
-        <v>1003</v>
-      </c>
+      <c r="P8" s="11"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T8" s="7">
-        <v>1003</v>
-      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI8" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
-      <c r="AN8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO8" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="25"/>
       <c r="AR8" s="25"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E9" s="7">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="11">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
+      <c r="N9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="11">
+        <v>1003</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1003</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
     </row>
     <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="11">
         <v>30</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E10" s="7">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="11">
-        <v>1003</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1003</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
     </row>
     <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E11" s="7">
         <v>35</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>40</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
+      <c r="N11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="11">
+        <v>1003</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1003</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
     </row>
     <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="11">
-        <v>1003</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1003</v>
-      </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO12" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
     </row>
     <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E13" s="7">
         <v>45</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>50</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
+      <c r="N13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="11">
+        <v>1003</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1003</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
     </row>
     <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
+        <v>45</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
         <v>50</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E14" s="11">
-        <v>55</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="11">
-        <v>1003</v>
-      </c>
+      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1003</v>
-      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ14" s="11"/>
+      <c r="AG14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
-      <c r="AN14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="27"/>
       <c r="AR14" s="27"/>
     </row>
     <row r="15" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
+        <v>50</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E15" s="11">
         <v>55</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>60</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="N15" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="P15" s="11">
+        <v>1003</v>
+      </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="S15" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1003</v>
+      </c>
       <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
+      <c r="V15" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1003</v>
-      </c>
+      <c r="X15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
-      <c r="AG15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
+      <c r="AN15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP15" s="11"/>
       <c r="AQ15" s="27"/>
       <c r="AR15" s="27"/>
     </row>
     <row r="16" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="26">
+        <v>55</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -2530,10 +2576,16 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
+      <c r="AD16" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
+      <c r="AG16" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
@@ -2547,166 +2599,160 @@
       <c r="AR16" s="27"/>
     </row>
     <row r="17" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1003</v>
-      </c>
+      <c r="A17" s="26"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="11">
-        <v>1003</v>
-      </c>
+      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1003</v>
-      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
-      <c r="AN17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP17" s="7"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
       <c r="AQ17" s="27"/>
       <c r="AR17" s="27"/>
     </row>
     <row r="18" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E18" s="11">
         <v>65</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
-        <v>80</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="L18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="P18" s="11">
+        <v>1003</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="S18" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1003</v>
+      </c>
       <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE18" s="11">
-        <v>1003</v>
-      </c>
+      <c r="X18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
+      <c r="AN18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP18" s="7"/>
       <c r="AQ18" s="27"/>
       <c r="AR18" s="27"/>
     </row>
     <row r="19" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="26">
+        <v>65</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -2728,10 +2774,16 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
+      <c r="AD19" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
+      <c r="AG19" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
@@ -2745,106 +2797,68 @@
       <c r="AR19" s="27"/>
     </row>
     <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="26"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
         <v>70</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E20" s="11">
-        <v>75</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11">
-        <v>1003</v>
-      </c>
-      <c r="T20" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ20" s="14"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
-      <c r="AN20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO20" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="27"/>
     </row>
     <row r="21" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
+        <v>70</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E21" s="11">
         <v>75</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>60</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2852,353 +2866,385 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="L21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="S21" s="11">
+        <v>1003</v>
+      </c>
+      <c r="T21" s="11">
+        <v>1003</v>
+      </c>
       <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
+      <c r="V21" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>1003</v>
-      </c>
+      <c r="X21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ21" s="14"/>
       <c r="AK21" s="11"/>
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
+      <c r="AN21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="27"/>
       <c r="AR21" s="27"/>
     </row>
     <row r="22" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
-        <v>80</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1003</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="11">
-        <v>1003</v>
-      </c>
-      <c r="T22" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ22" s="14"/>
+      <c r="AG22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
       <c r="AM22" s="11"/>
-      <c r="AN22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO22" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="27"/>
       <c r="AR22" s="27"/>
     </row>
     <row r="23" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
+        <v>80</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E23" s="11">
         <v>85</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <v>90</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="L23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="S23" s="11">
+        <v>1003</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1003</v>
+      </c>
       <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="V23" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE23" s="11">
-        <v>1003</v>
-      </c>
+      <c r="X23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI23" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ23" s="14"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
+      <c r="AN23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO23" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="27"/>
     </row>
     <row r="24" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
+        <v>85</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
         <v>90</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E24" s="11">
-        <v>91</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="11">
-        <v>1003</v>
-      </c>
+      <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-      <c r="X24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI24" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ24" s="14"/>
+      <c r="AG24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11"/>
       <c r="AM24" s="11"/>
-      <c r="AN24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO24" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="27"/>
       <c r="AR24" s="27"/>
     </row>
     <row r="25" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
-        <v>91</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>121</v>
+        <v>90</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1003</v>
+      </c>
       <c r="E25" s="11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="N25" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="P25" s="11">
+        <v>1003</v>
+      </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
+      <c r="S25" s="11">
+        <v>1003</v>
+      </c>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="V25" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
+      <c r="X25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="14"/>
+      <c r="AH25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI25" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
+      <c r="AN25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO25" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="27"/>
       <c r="AR25" s="27"/>
     </row>
     <row r="26" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
-        <v>95</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -3221,19 +3267,13 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
-      <c r="AD26" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE26" s="11">
-        <v>1003</v>
-      </c>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
       <c r="AM26" s="11"/>
@@ -3245,580 +3285,548 @@
     </row>
     <row r="27" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
+        <v>95</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
         <v>100</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E27" s="11">
-        <v>101</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ27" s="14"/>
+      <c r="AG27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
-      <c r="AN27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO27" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
       <c r="AP27" s="11"/>
       <c r="AQ27" s="27"/>
       <c r="AR27" s="27"/>
     </row>
     <row r="28" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
+        <v>100</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E28" s="11">
         <v>101</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>110</v>
-      </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="13"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="N28" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
+      <c r="S28" s="11">
+        <v>1003</v>
+      </c>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="V28" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
+      <c r="X28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="14"/>
+      <c r="AH28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI28" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ28" s="14"/>
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
+      <c r="AN28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="27"/>
       <c r="AR28" s="27"/>
     </row>
     <row r="29" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
+        <v>101</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
         <v>110</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E29" s="11">
-        <v>111</v>
-      </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI29" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="14"/>
       <c r="AJ29" s="14"/>
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
       <c r="AM29" s="11"/>
-      <c r="AN29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
       <c r="AQ29" s="27"/>
       <c r="AR29" s="27"/>
     </row>
-    <row r="30" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+    <row r="30" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>110</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E30" s="11">
         <v>111</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11">
+        <v>1003</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI30" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+    </row>
+    <row r="31" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>111</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30">
         <v>100</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-    </row>
-    <row r="31" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-    </row>
-    <row r="32" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+    </row>
+    <row r="32" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="36"/>
+      <c r="AR32" s="36"/>
+    </row>
+    <row r="33" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
         <v>1010</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="39" t="s">
+      <c r="B33" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="39">
-        <v>1003</v>
-      </c>
-      <c r="E32" s="39">
-        <v>1020</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="39">
-        <v>1003</v>
-      </c>
-      <c r="Q32" s="40">
-        <v>1003</v>
-      </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40">
-        <v>1003</v>
-      </c>
-      <c r="T32" s="40">
-        <v>1003</v>
-      </c>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="W32" s="40"/>
-      <c r="X32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI32" s="41" t="s">
+      <c r="D33" s="39">
+        <v>1003</v>
+      </c>
+      <c r="E33" s="39">
+        <v>102000</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" s="40"/>
+      <c r="N33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O33" s="40"/>
+      <c r="P33" s="39">
+        <v>1003</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>1003</v>
+      </c>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40">
+        <v>1003</v>
+      </c>
+      <c r="T33" s="40">
+        <v>1003</v>
+      </c>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" s="40"/>
+      <c r="X33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI33" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="7" t="s">
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AN32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-    </row>
-    <row r="33" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>1020</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1025</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="11">
-        <v>1003</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T33" s="7">
-        <v>1003</v>
-      </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
       <c r="AN33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AO33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
+      <c r="AO33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
     </row>
     <row r="34" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>1025</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="A34" s="39">
+        <v>102000</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>1030</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="27"/>
-      <c r="AR34" s="27"/>
+        <v>1091</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
     </row>
     <row r="35" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>39</v>
@@ -3827,20 +3835,20 @@
         <v>1003</v>
       </c>
       <c r="E35" s="7">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="11">
@@ -3882,10 +3890,10 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="7"/>
@@ -3894,8 +3902,8 @@
       <c r="AN35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AO35" s="7" t="s">
-        <v>143</v>
+      <c r="AO35" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="25"/>
@@ -3903,17 +3911,17 @@
     </row>
     <row r="36" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
-        <v>1035</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>95</v>
+        <v>1025</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="11">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3947,7 +3955,7 @@
       </c>
       <c r="AF36" s="11"/>
       <c r="AG36" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
@@ -3963,10 +3971,10 @@
     </row>
     <row r="37" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>39</v>
@@ -3975,7 +3983,7 @@
         <v>1003</v>
       </c>
       <c r="E37" s="7">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -3984,11 +3992,11 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="11">
@@ -4030,10 +4038,10 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="7"/>
@@ -4042,8 +4050,8 @@
       <c r="AN37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AO37" s="7" t="s">
-        <v>143</v>
+      <c r="AO37" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AP37" s="7"/>
       <c r="AQ37" s="25"/>
@@ -4051,21 +4059,21 @@
     </row>
     <row r="38" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -4095,11 +4103,11 @@
       </c>
       <c r="AF38" s="11"/>
       <c r="AG38" s="14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AH38" s="11"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
       <c r="AM38" s="11"/>
@@ -4111,10 +4119,10 @@
     </row>
     <row r="39" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>39</v>
@@ -4122,39 +4130,39 @@
       <c r="D39" s="11">
         <v>1003</v>
       </c>
-      <c r="E39" s="11">
-        <v>1055</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+      <c r="E39" s="7">
+        <v>1045</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O39" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="O39" s="7"/>
       <c r="P39" s="11">
         <v>1003</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
       <c r="S39" s="7">
         <v>1003</v>
       </c>
       <c r="T39" s="7">
         <v>1003</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W39" s="11"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" s="7"/>
       <c r="X39" s="11" t="b">
         <v>1</v>
       </c>
@@ -4173,43 +4181,43 @@
       <c r="AC39" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="11" t="s">
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AO39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
+      <c r="AO39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
     </row>
     <row r="40" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -4242,12 +4250,12 @@
         <v>1003</v>
       </c>
       <c r="AF40" s="11"/>
-      <c r="AG40" s="11" t="s">
-        <v>73</v>
+      <c r="AG40" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="11"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="11"/>
       <c r="AM40" s="11"/>
@@ -4258,156 +4266,160 @@
       <c r="AR40" s="27"/>
     </row>
     <row r="41" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="26">
+        <v>1050</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1003</v>
+      </c>
       <c r="E41" s="11">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="L41" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+      <c r="N41" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="P41" s="11">
+        <v>1003</v>
+      </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
+      <c r="S41" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1003</v>
+      </c>
       <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
+      <c r="V41" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
+      <c r="X41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="11"/>
-      <c r="AI41" s="11"/>
+      <c r="AH41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ41" s="11"/>
       <c r="AK41" s="11"/>
       <c r="AL41" s="11"/>
       <c r="AM41" s="11"/>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="11"/>
+      <c r="AN41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP41" s="11"/>
       <c r="AQ41" s="27"/>
       <c r="AR41" s="27"/>
     </row>
     <row r="42" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
+        <v>1055</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11">
         <v>1060</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1003</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1065</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="11">
-        <v>1003</v>
-      </c>
+      <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="7">
-        <v>1003</v>
-      </c>
-      <c r="T42" s="7">
-        <v>1003</v>
-      </c>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="11"/>
-      <c r="V42" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="X42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF42" s="11"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI42" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="AG42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
       <c r="AK42" s="11"/>
       <c r="AL42" s="11"/>
       <c r="AM42" s="11"/>
-      <c r="AN42" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO42" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP42" s="7"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
       <c r="AQ42" s="27"/>
       <c r="AR42" s="27"/>
     </row>
     <row r="43" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>1065</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A43" s="26"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -4433,16 +4445,10 @@
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
-      <c r="AD43" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE43" s="11">
-        <v>1003</v>
-      </c>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
-      <c r="AG43" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11"/>
@@ -4456,12 +4462,20 @@
       <c r="AR43" s="27"/>
     </row>
     <row r="44" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="26">
+        <v>1060</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1003</v>
+      </c>
       <c r="E44" s="11">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -4469,55 +4483,87 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
+      <c r="L44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="P44" s="11">
+        <v>1003</v>
+      </c>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="S44" s="7">
+        <v>1003</v>
+      </c>
+      <c r="T44" s="7">
+        <v>1003</v>
+      </c>
       <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
+      <c r="V44" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
+      <c r="X44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
+      <c r="AH44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI44" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="AJ44" s="11"/>
       <c r="AK44" s="11"/>
       <c r="AL44" s="11"/>
       <c r="AM44" s="11"/>
-      <c r="AN44" s="11"/>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="11"/>
+      <c r="AN44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP44" s="7"/>
       <c r="AQ44" s="27"/>
       <c r="AR44" s="27"/>
     </row>
     <row r="45" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
-        <v>1070</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>89</v>
+        <v>1065</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="11">
-        <v>1003</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -4525,89 +4571,57 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="11">
-        <v>1003</v>
-      </c>
-      <c r="T45" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="V45" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF45" s="11"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI45" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ45" s="14"/>
+      <c r="AG45" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
       <c r="AK45" s="11"/>
       <c r="AL45" s="11"/>
       <c r="AM45" s="11"/>
-      <c r="AN45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO45" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
       <c r="AP45" s="11"/>
       <c r="AQ45" s="27"/>
       <c r="AR45" s="27"/>
     </row>
     <row r="46" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
-        <v>1075</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A46" s="26"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -4629,16 +4643,10 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
-      <c r="AD46" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE46" s="11">
-        <v>1003</v>
-      </c>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
-      <c r="AG46" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="AG46" s="11"/>
       <c r="AH46" s="11"/>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="11"/>
@@ -4653,10 +4661,10 @@
     </row>
     <row r="47" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>39</v>
@@ -4665,24 +4673,22 @@
         <v>1003</v>
       </c>
       <c r="E47" s="11">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -4720,12 +4726,12 @@
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
+      <c r="AG47" s="14"/>
       <c r="AH47" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI47" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ47" s="14"/>
       <c r="AK47" s="11"/>
@@ -4734,8 +4740,8 @@
       <c r="AN47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AO47" s="7" t="s">
-        <v>143</v>
+      <c r="AO47" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="27"/>
@@ -4743,21 +4749,22 @@
     </row>
     <row r="48" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -4786,7 +4793,7 @@
       </c>
       <c r="AF48" s="11"/>
       <c r="AG48" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AH48" s="11"/>
       <c r="AI48" s="11"/>
@@ -4802,10 +4809,10 @@
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>39</v>
@@ -4814,31 +4821,35 @@
         <v>1003</v>
       </c>
       <c r="E49" s="11">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M49" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="N49" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O49" s="11"/>
-      <c r="P49" s="11">
-        <v>1003</v>
-      </c>
+      <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11">
         <v>1003</v>
       </c>
-      <c r="T49" s="11"/>
+      <c r="T49" s="11">
+        <v>1003</v>
+      </c>
       <c r="U49" s="11"/>
       <c r="V49" s="11" t="b">
         <v>1</v>
@@ -4867,10 +4878,10 @@
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
       <c r="AH49" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI49" s="14" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="AJ49" s="14"/>
       <c r="AK49" s="11"/>
@@ -4880,7 +4891,7 @@
         <v>54</v>
       </c>
       <c r="AO49" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AP49" s="11"/>
       <c r="AQ49" s="27"/>
@@ -4888,24 +4899,21 @@
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
-        <v>1091</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>121</v>
+        <v>1085</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="G50" s="11"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -4926,13 +4934,19 @@
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
+      <c r="AD50" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
+      <c r="AG50" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="AH50" s="11"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
       <c r="AK50" s="11"/>
       <c r="AL50" s="11"/>
       <c r="AM50" s="11"/>
@@ -4944,15 +4958,17 @@
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
-        <v>1095</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>101</v>
+        <v>1090</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1003</v>
+      </c>
       <c r="E51" s="11">
         <v>10100</v>
       </c>
@@ -4962,147 +4978,143 @@
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="L51" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
+      <c r="N51" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+      <c r="P51" s="11">
+        <v>1003</v>
+      </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
+      <c r="S51" s="11">
+        <v>1003</v>
+      </c>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
+      <c r="V51" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11">
-        <v>1003</v>
-      </c>
-      <c r="AE51" s="11">
-        <v>1003</v>
-      </c>
+      <c r="X51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
-      <c r="AG51" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ51" s="14"/>
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
       <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
+      <c r="AN51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO51" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AP51" s="11"/>
       <c r="AQ51" s="27"/>
       <c r="AR51" s="27"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
-        <v>10100</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>92</v>
+        <v>1091</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="11">
-        <v>1003</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>10101</v>
+        <v>1020</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="13"/>
+      <c r="G52" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="11">
-        <v>1003</v>
-      </c>
+      <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
-      <c r="V52" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="V52" s="11"/>
       <c r="W52" s="11"/>
-      <c r="X52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
-      <c r="AH52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI52" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="14"/>
       <c r="AJ52" s="14"/>
       <c r="AK52" s="11"/>
       <c r="AL52" s="11"/>
       <c r="AM52" s="11"/>
-      <c r="AN52" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO52" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
       <c r="AP52" s="11"/>
       <c r="AQ52" s="27"/>
       <c r="AR52" s="27"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
-        <v>10101</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>83</v>
+        <v>1095</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>10110</v>
+        <v>10100</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="13"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -5124,13 +5136,19 @@
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
+      <c r="AD53" s="11">
+        <v>1003</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>1003</v>
+      </c>
       <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
+      <c r="AG53" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="AH53" s="11"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
       <c r="AK53" s="11"/>
       <c r="AL53" s="11"/>
       <c r="AM53" s="11"/>
@@ -5142,10 +5160,10 @@
     </row>
     <row r="54" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
-        <v>10110</v>
+        <v>10100</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>39</v>
@@ -5154,7 +5172,7 @@
         <v>1003</v>
       </c>
       <c r="E54" s="11">
-        <v>10111</v>
+        <v>10101</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -5162,12 +5180,10 @@
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -5205,10 +5221,10 @@
       <c r="AF54" s="11"/>
       <c r="AG54" s="11"/>
       <c r="AH54" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AJ54" s="14"/>
       <c r="AK54" s="11"/>
@@ -5218,76 +5234,216 @@
         <v>54</v>
       </c>
       <c r="AO54" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AP54" s="11"/>
       <c r="AQ54" s="27"/>
       <c r="AR54" s="27"/>
     </row>
-    <row r="55" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28">
+    <row r="55" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
+        <v>10101</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11">
+        <v>10110</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="27"/>
+      <c r="AR55" s="27"/>
+    </row>
+    <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26">
+        <v>10110</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1003</v>
+      </c>
+      <c r="E56" s="11">
         <v>10111</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="30" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11">
+        <v>1003</v>
+      </c>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO56" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="27"/>
+      <c r="AR56" s="27"/>
+    </row>
+    <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="28">
+        <v>10111</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30">
+      <c r="D57" s="30"/>
+      <c r="E57" s="30">
         <v>10100</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="32"/>
-      <c r="AJ55" s="32"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="33"/>
-      <c r="AR55" s="33"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="31"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30"/>
+      <c r="AI57" s="32"/>
+      <c r="AJ57" s="32"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30"/>
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30"/>
+      <c r="AQ57" s="33"/>
+      <c r="AR57" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M7 M19">
+  <conditionalFormatting sqref="M7:M8 M20">
     <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32">
+  <conditionalFormatting sqref="M33:M34">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M44">
+  <conditionalFormatting sqref="M46">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
